--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2162002.820567082</v>
+        <v>-2164741.250769143</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>312.4269027736271</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>78.08297290192831</v>
       </c>
       <c r="H2" t="n">
-        <v>301.3650817198709</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>57.85277356264326</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>15.69463326232515</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>107.1435048450436</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
@@ -914,7 +914,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>351.3575063793884</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>25.89854259897712</v>
       </c>
       <c r="C7" t="n">
-        <v>157.4710189452827</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>187.8983979608352</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1190,16 +1190,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>10.63225721599457</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>57.43936931517957</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>154.5616051898702</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.0312718434576</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>213.6608990998127</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>157.1951996150709</v>
       </c>
       <c r="C19" t="n">
-        <v>103.8784673763408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.5795121770519</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.0162797694411</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002295</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002292</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808201</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>874.7988590758284</v>
+        <v>1991.375055138295</v>
       </c>
       <c r="C2" t="n">
-        <v>874.7988590758284</v>
+        <v>1622.412538197883</v>
       </c>
       <c r="D2" t="n">
-        <v>874.7988590758284</v>
+        <v>1264.146839591133</v>
       </c>
       <c r="E2" t="n">
-        <v>874.7988590758284</v>
+        <v>948.5641095167618</v>
       </c>
       <c r="F2" t="n">
-        <v>463.8129542862209</v>
+        <v>537.5782047271542</v>
       </c>
       <c r="G2" t="n">
-        <v>451.4010970184995</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974692</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156594</v>
+        <v>846.2214751156638</v>
       </c>
       <c r="M2" t="n">
-        <v>1487.244684735553</v>
+        <v>1142.292041673267</v>
       </c>
       <c r="N2" t="n">
-        <v>1792.719790971137</v>
+        <v>1447.767147908852</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.44097753283</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115762</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.538031115762</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1261.39869913995</v>
+        <v>2377.974895202417</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>454.3780940560371</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>663.9689673088667</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928761</v>
+        <v>1264.580978695732</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362092</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.175764476486</v>
+        <v>364.6596071445053</v>
       </c>
       <c r="C4" t="n">
-        <v>167.7386194637151</v>
+        <v>364.6596071445053</v>
       </c>
       <c r="D4" t="n">
-        <v>167.7386194637151</v>
+        <v>214.5429677321696</v>
       </c>
       <c r="E4" t="n">
-        <v>167.7386194637151</v>
+        <v>214.5429677321696</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637151</v>
+        <v>67.65302023425926</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637151</v>
+        <v>67.65302023425926</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>67.65302023425926</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>991.0700018628636</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>736.3855136569767</v>
+        <v>1056.517821155236</v>
       </c>
       <c r="W4" t="n">
-        <v>446.9683436200161</v>
+        <v>767.1006511182752</v>
       </c>
       <c r="X4" t="n">
-        <v>446.9683436200161</v>
+        <v>767.1006511182752</v>
       </c>
       <c r="Y4" t="n">
-        <v>226.175764476486</v>
+        <v>546.3080719747451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1551.254651426909</v>
+        <v>1689.076413520797</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.292134486497</v>
+        <v>1689.076413520797</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>1330.810714914046</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>945.0224623158019</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="X5" t="n">
-        <v>1551.254651426909</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1551.254651426909</v>
+        <v>2075.676253584918</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
         <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M6" t="n">
-        <v>1240.281905962038</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N6" t="n">
-        <v>1630.69146728778</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2255.657696694299</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.2975588391987</v>
+        <v>625.0463339503837</v>
       </c>
       <c r="C7" t="n">
-        <v>304.2359235409333</v>
+        <v>456.1101510224768</v>
       </c>
       <c r="D7" t="n">
-        <v>304.2359235409333</v>
+        <v>305.993511610141</v>
       </c>
       <c r="E7" t="n">
-        <v>304.2359235409333</v>
+        <v>305.993511610141</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
@@ -4723,16 +4723,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.9810806808055</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
         <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750634</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916873</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1348.412641916873</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="V7" t="n">
-        <v>1093.728153710986</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="W7" t="n">
-        <v>1093.728153710986</v>
+        <v>871.9990571332846</v>
       </c>
       <c r="X7" t="n">
-        <v>865.7386028129686</v>
+        <v>871.9990571332846</v>
       </c>
       <c r="Y7" t="n">
-        <v>644.9460236694384</v>
+        <v>651.2064779897545</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>898.1833666278133</v>
+        <v>1014.933924946744</v>
       </c>
       <c r="C8" t="n">
-        <v>898.1833666278133</v>
+        <v>645.9714080063327</v>
       </c>
       <c r="D8" t="n">
-        <v>539.9176680210627</v>
+        <v>456.1750464297314</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314551</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618235</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="W8" t="n">
-        <v>1661.788456864705</v>
+        <v>1774.999523271946</v>
       </c>
       <c r="X8" t="n">
-        <v>1288.322698603625</v>
+        <v>1401.533765010866</v>
       </c>
       <c r="Y8" t="n">
-        <v>898.1833666278133</v>
+        <v>1401.533765010866</v>
       </c>
     </row>
     <row r="9">
@@ -4866,43 +4866,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344692</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.587795454363</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1941.516476169894</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>552.2779126738683</v>
+        <v>685.2728561383485</v>
       </c>
       <c r="C10" t="n">
-        <v>383.3417297459614</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="D10" t="n">
-        <v>383.3417297459614</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="E10" t="n">
-        <v>383.3417297459614</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3221647811336</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4993,19 +4993,19 @@
         <v>1544.862307910904</v>
       </c>
       <c r="U10" t="n">
-        <v>1255.744530921303</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="V10" t="n">
-        <v>1001.060042715416</v>
+        <v>1290.177819705017</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.060042715416</v>
+        <v>1134.054986179896</v>
       </c>
       <c r="X10" t="n">
-        <v>773.0704918173984</v>
+        <v>906.0654352818786</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.2779126738683</v>
+        <v>685.2728561383485</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614382</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.0966395286528</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5841,13 +5841,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>230.7656652470141</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>230.7656652470141</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,46 +5993,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6549,16 +6549,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
@@ -6847,22 +6847,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,13 +6877,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7985,22 +7985,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942355</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>221.8231992374356</v>
+        <v>36.14651360027011</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>258.4238582179889</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>101.5656895856104</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530996</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>232.4400048971985</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>191.4694788103606</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>231.4498533910212</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>158.8870372829655</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>334.2047657931158</v>
       </c>
       <c r="H2" t="n">
-        <v>7.23236372964044</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>109.3940475359846</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>15.00954930701832</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.55338150863719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>12.04875628922449</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>22.63678056686643</v>
       </c>
       <c r="C19" t="n">
-        <v>63.36835372228708</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>4.71520066917202</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>113.4176828771281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1121090.197495438</v>
+        <v>1121090.197495437</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1357460.050165872</v>
+        <v>1357460.050165871</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1357460.050165871</v>
+        <v>1357460.050165872</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1357460.050165871</v>
+        <v>1357460.050165872</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1357460.050165871</v>
+        <v>1357460.050165872</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1357460.050165872</v>
+        <v>1357460.050165871</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215492</v>
+        <v>48691.36674215488</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675045</v>
+      </c>
+      <c r="I2" t="n">
         <v>60535.99497675047</v>
       </c>
-      <c r="G2" t="n">
-        <v>60535.99497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675044</v>
-      </c>
       <c r="J2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
+        <v>61578.13273982129</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898952</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188841.7348196798</v>
+        <v>188841.7348196799</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61714.61558823382</v>
+        <v>61714.6155882334</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695105</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478851</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478858</v>
       </c>
       <c r="N4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1042051.259618466</v>
+        <v>-1042480.818485057</v>
       </c>
       <c r="C6" t="n">
-        <v>-333734.0711368315</v>
+        <v>-333734.0711368288</v>
       </c>
       <c r="D6" t="n">
         <v>-160969.7113469363</v>
       </c>
       <c r="E6" t="n">
-        <v>-547762.8831246024</v>
+        <v>-547797.6210500379</v>
       </c>
       <c r="F6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428741</v>
       </c>
       <c r="G6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428741</v>
       </c>
       <c r="H6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.7533042874</v>
       </c>
       <c r="I6" t="n">
-        <v>-46874.01537885172</v>
+        <v>-46908.75330428737</v>
       </c>
       <c r="J6" t="n">
-        <v>-244706.0577285625</v>
+        <v>-244706.0577285626</v>
       </c>
       <c r="K6" t="n">
-        <v>-55864.32290888266</v>
+        <v>-55864.32290888272</v>
       </c>
       <c r="L6" t="n">
         <v>-55864.32290888266</v>
@@ -26558,10 +26558,10 @@
         <v>-55864.32290888266</v>
       </c>
       <c r="O6" t="n">
-        <v>-75292.04090251439</v>
+        <v>-75292.04090251442</v>
       </c>
       <c r="P6" t="n">
-        <v>-55864.32290888274</v>
+        <v>-55864.32290888269</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498447</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203966</v>
-      </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522369</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>206.3858544880421</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>69.50346729863469</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>99.08474323716106</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>299.7325408966679</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27673,16 +27673,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>18.37359429908059</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>153.9334375829602</v>
       </c>
       <c r="C7" t="n">
-        <v>9.775802153345097</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>166.7846436598477</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>338.6087115014184</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>87.98167870775168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>131.9613931467208</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31285,25 +31285,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31312,7 +31312,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31364,22 +31364,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31473,10 +31473,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861829</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523453</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9501404413636</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>689.3300812557329</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>463.4318227833011</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,19 +34451,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>499.7183702643371</v>
+        <v>314.0416846271737</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>381.0734463697848</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>368.1712769547899</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352465</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>570.7518035997552</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>309.4991650401228</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35109,10 +35109,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
@@ -35261,19 +35261,19 @@
         <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>483.4465482041715</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417385</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790087</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>295.6084283580303</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>557.9883691723996</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36768,7 +36768,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
         <v>144.686904791938</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>320.8355783388566</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
